--- a/file/confirm/人事_1.1_重要业务结果/人事_1.1_外供数据检查.xlsx
+++ b/file/confirm/人事_1.1_重要业务结果/人事_1.1_外供数据检查.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H398"/>
+  <dimension ref="A1:M398"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,6 +429,11 @@
     <col width="10" customWidth="1" min="6" max="6"/>
     <col width="32" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="10" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="10" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -472,6 +477,31 @@
           <t>精度</t>
         </is>
       </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>字段确认</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>标准确认</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>标准修订状态</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>数据元素</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>数据元素uuid</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
